--- a/GmailTestCase.xlsx
+++ b/GmailTestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDDY PRATHAP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDDY PRATHAP\Desktop\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Project Name</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Click on the Forgot password Link</t>
-  </si>
-  <si>
-    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=hz2JHwepV06I1SRNg4ZkYuFZAAjwWiNEkubvdA-0zrtUNUpBUzRKMDVXNVBEVVRLMUY2NUU4RzEwRy4u</t>
   </si>
 </sst>
 </file>
@@ -321,6 +318,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,12 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,15 +632,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -762,7 +759,7 @@
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -783,7 +780,7 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -802,7 +799,7 @@
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -821,7 +818,7 @@
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -831,9 +828,7 @@
       <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -842,7 +837,7 @@
       <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -854,7 +849,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -873,7 +868,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -899,7 +894,7 @@
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
